--- a/sources/Bagvalal_data.xlsx
+++ b/sources/Bagvalal_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="576">
   <si>
     <t>language_no</t>
   </si>
@@ -1692,64 +1692,64 @@
     <t>CV, букв. "поцелуй делать"</t>
   </si>
   <si>
-    <t>GENNOM</t>
-  </si>
-  <si>
-    <t>NOMERG</t>
-  </si>
-  <si>
-    <t>NOMCONTESS</t>
-  </si>
-  <si>
-    <t>NOMAFF</t>
-  </si>
-  <si>
-    <t>NOMSUPESS</t>
-  </si>
-  <si>
-    <t>AFFNOM</t>
-  </si>
-  <si>
-    <t>ERGSUPLAT</t>
-  </si>
-  <si>
-    <t>NOMSUPLAT</t>
-  </si>
-  <si>
-    <t>NOMINTERES</t>
-  </si>
-  <si>
-    <t>NOMLOCLAT</t>
-  </si>
-  <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>SUPLATNOM</t>
-  </si>
-  <si>
-    <t>NOMGEN</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>CONTESSNOM</t>
-  </si>
-  <si>
-    <t>NOMCOM</t>
-  </si>
-  <si>
-    <t>NOMSUPEL</t>
-  </si>
-  <si>
-    <t>NOMADESS</t>
-  </si>
-  <si>
-    <t>ERGADESS</t>
-  </si>
-  <si>
-    <t>ERGCONTESS</t>
+    <t>AFF_NOM</t>
+  </si>
+  <si>
+    <t>CONTESS_NOM</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>ERG_ADESS</t>
+  </si>
+  <si>
+    <t>ERG_CONTESS</t>
+  </si>
+  <si>
+    <t>ERG_SUPLAT</t>
+  </si>
+  <si>
+    <t>GEN_NOM</t>
+  </si>
+  <si>
+    <t>NOM_ADESS</t>
+  </si>
+  <si>
+    <t>NOM_AFF</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t>NOM_CONTESS</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_ERG</t>
+  </si>
+  <si>
+    <t>NOM_GEN</t>
+  </si>
+  <si>
+    <t>NOM_INTERESS</t>
+  </si>
+  <si>
+    <t>NOM_SUPEL</t>
+  </si>
+  <si>
+    <t>NOM_LOCLAT</t>
+  </si>
+  <si>
+    <t>NOM_SUPESS</t>
+  </si>
+  <si>
+    <t>NOM_SUPLAT</t>
+  </si>
+  <si>
+    <t>SUPLAT_NOM</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1850,7 +1850,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2146,32 +2145,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="E122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" customWidth="1"/>
-    <col min="11" max="11" width="6" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="50.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="46" style="10" customWidth="1"/>
-    <col min="16" max="16" width="29.26953125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="28.6328125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="113.81640625" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="4.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="9" customWidth="1"/>
+    <col min="11" max="11" width="6" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="37.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="46" style="9" customWidth="1"/>
+    <col min="16" max="16" width="29.26953125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="28.6328125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="113.81640625" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
@@ -2256,25 +2255,25 @@
         <v>22</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="M2" s="11"/>
+      <c r="L2" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="M2" s="10"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2299,25 +2298,25 @@
         <v>26</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2342,25 +2341,25 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="M4" s="11"/>
+      <c r="L4" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2385,23 +2384,25 @@
         <v>34</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2426,19 +2427,23 @@
         <v>38</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2463,25 +2468,25 @@
         <v>42</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="M7" s="11"/>
+      <c r="L7" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -2506,25 +2511,25 @@
         <v>46</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="M8" s="11"/>
+      <c r="L8" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -2549,23 +2554,25 @@
         <v>50</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -2590,25 +2597,25 @@
         <v>54</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -2633,19 +2640,23 @@
         <v>58</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="I11" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -2670,27 +2681,27 @@
         <v>62</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>545</v>
-      </c>
+      <c r="L12" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="10" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -2715,19 +2726,23 @@
         <v>66</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="I13" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -2752,25 +2767,25 @@
         <v>70</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="M14" s="11"/>
+      <c r="L14" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -2795,19 +2810,23 @@
         <v>74</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="I15" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -2832,23 +2851,25 @@
         <v>78</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -2873,23 +2894,25 @@
         <v>82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -2914,25 +2937,25 @@
         <v>86</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="M18" s="11"/>
+      <c r="L18" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -2957,23 +2980,25 @@
         <v>90</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -2998,23 +3023,25 @@
         <v>94</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3039,23 +3066,25 @@
         <v>98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3080,25 +3109,25 @@
         <v>102</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="M22" s="11"/>
+      <c r="L22" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3123,25 +3152,25 @@
         <v>106</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="M23" s="11"/>
+      <c r="L23" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="M23" s="10"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3166,25 +3195,25 @@
         <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="M24" s="11"/>
+      <c r="L24" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3209,19 +3238,23 @@
         <v>114</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="I25" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3246,25 +3279,25 @@
         <v>118</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="M26" s="11"/>
+      <c r="L26" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3289,19 +3322,23 @@
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="I27" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -3326,23 +3363,25 @@
         <v>126</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M28" s="11"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -3367,19 +3406,23 @@
         <v>130</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="I29" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
@@ -3404,25 +3447,25 @@
         <v>134</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M30" s="10"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -3447,19 +3490,23 @@
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="I31" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -3484,23 +3531,25 @@
         <v>142</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
+      <c r="L32" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
@@ -3525,19 +3574,23 @@
         <v>146</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="I33" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -3562,25 +3615,25 @@
         <v>150</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M34" s="11"/>
+      <c r="L34" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M34" s="10"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -3605,19 +3658,23 @@
         <v>154</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -3642,19 +3699,23 @@
         <v>158</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="I36" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -3679,23 +3740,25 @@
         <v>162</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11" t="s">
+      <c r="L37" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L37" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M37" s="11"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -3720,19 +3783,23 @@
         <v>166</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="I38" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -3757,19 +3824,23 @@
         <v>169</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="I39" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -3794,23 +3865,25 @@
         <v>173</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M40" s="11"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
@@ -3835,19 +3908,23 @@
         <v>177</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="I41" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -3872,23 +3949,25 @@
         <v>181</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M42" s="11"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -3913,19 +3992,23 @@
         <v>185</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="I43" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -3950,23 +4033,25 @@
         <v>189</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11" t="s">
+      <c r="L44" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L44" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M44" s="11"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -3991,23 +4076,25 @@
         <v>193</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K45" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L45" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4032,19 +4119,23 @@
         <v>197</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="I46" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4069,25 +4160,25 @@
         <v>201</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M47" s="11"/>
+      <c r="L47" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M47" s="10"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4112,23 +4203,25 @@
         <v>205</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K48" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M48" s="11"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4153,19 +4246,23 @@
         <v>209</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="13"/>
+      <c r="I49" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4190,19 +4287,23 @@
         <v>213</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
+      <c r="I50" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
@@ -4227,23 +4328,25 @@
         <v>217</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K51" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11" t="s">
+      <c r="L51" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M51" s="11"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -4268,25 +4371,25 @@
         <v>221</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="M52" s="11"/>
+      <c r="L52" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="M52" s="10"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4311,19 +4414,23 @@
         <v>225</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
+      <c r="I53" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -4348,19 +4455,23 @@
         <v>229</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
+      <c r="I54" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -4385,25 +4496,25 @@
         <v>233</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="M55" s="11"/>
+      <c r="L55" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="M55" s="10"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -4428,25 +4539,25 @@
         <v>237</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M56" s="11"/>
+      <c r="L56" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M56" s="10"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -4471,25 +4582,25 @@
         <v>241</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M57" s="11"/>
+      <c r="L57" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M57" s="10"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="10"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -4514,25 +4625,25 @@
         <v>245</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M58" s="11"/>
+      <c r="L58" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M58" s="10"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -4557,25 +4668,25 @@
         <v>249</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M59" s="10"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -4600,19 +4711,23 @@
         <v>253</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="I60" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -4637,19 +4752,23 @@
         <v>257</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
+      <c r="I61" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="10"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -4674,19 +4793,23 @@
         <v>261</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="14"/>
+      <c r="I62" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="13"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="13"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -4711,25 +4834,25 @@
         <v>265</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="M63" s="11"/>
+      <c r="L63" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="M63" s="10"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -4754,23 +4877,25 @@
         <v>269</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11" t="s">
+      <c r="L64" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L64" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M64" s="11"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="10"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -4795,19 +4920,23 @@
         <v>273</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
+      <c r="I65" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -4832,19 +4961,23 @@
         <v>277</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
+      <c r="I66" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="10"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -4869,23 +5002,25 @@
         <v>281</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11" t="s">
+      <c r="L67" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M67" s="11"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="10"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -4910,19 +5045,23 @@
         <v>285</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="13"/>
+      <c r="I68" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="12"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="12"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -4947,19 +5086,23 @@
         <v>289</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
+      <c r="I69" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="10"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -4984,19 +5127,23 @@
         <v>293</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
+      <c r="I70" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5021,23 +5168,25 @@
         <v>297</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11" t="s">
+      <c r="L71" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L71" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M71" s="11"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="10"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -5062,23 +5211,25 @@
         <v>301</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K72" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
+      <c r="L72" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M72" s="11"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="5"/>
+      <c r="S72" s="10"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
@@ -5103,19 +5254,23 @@
         <v>305</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
+      <c r="I73" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="10"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -5140,25 +5295,25 @@
         <v>309</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L74" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="M74" s="11"/>
+      <c r="L74" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="M74" s="10"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="10"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -5183,19 +5338,23 @@
         <v>313</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
+      <c r="I75" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="10"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -5220,23 +5379,25 @@
         <v>317</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K76" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11" t="s">
+      <c r="L76" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L76" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M76" s="11"/>
+      <c r="M76" s="10"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="10"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -5261,25 +5422,25 @@
         <v>321</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="J77" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L77" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="M77" s="11"/>
+      <c r="L77" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="M77" s="10"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="10"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -5304,23 +5465,25 @@
         <v>325</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K78" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11" t="s">
+      <c r="L78" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L78" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M78" s="11"/>
+      <c r="M78" s="10"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="10"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -5345,25 +5508,25 @@
         <v>329</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="J79" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L79" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M79" s="11"/>
+      <c r="L79" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="M79" s="10"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="10"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -5388,19 +5551,23 @@
         <v>333</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
+      <c r="I80" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="10"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -5425,19 +5592,23 @@
         <v>337</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
+      <c r="I81" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="10"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -5462,25 +5633,25 @@
         <v>341</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L82" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="M82" s="11"/>
+      <c r="L82" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="M82" s="10"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="10"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -5505,25 +5676,25 @@
         <v>345</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L83" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="M83" s="11"/>
+      <c r="L83" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="M83" s="10"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="10"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -5548,25 +5719,25 @@
         <v>349</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="13" t="s">
+      <c r="I84" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="K84" s="13" t="s">
+      <c r="K84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L84" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="M84" s="13"/>
+      <c r="L84" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="M84" s="12"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="12"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -5591,19 +5762,23 @@
         <v>353</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
+      <c r="I85" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="10"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -5628,23 +5803,25 @@
         <v>357</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K86" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11" t="s">
+      <c r="L86" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L86" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M86" s="11"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="10"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -5669,19 +5846,23 @@
         <v>361</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
+      <c r="I87" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="10"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -5706,19 +5887,23 @@
         <v>365</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="I88" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -5743,19 +5928,23 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="13"/>
+      <c r="I89" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="12"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -5780,19 +5969,23 @@
         <v>373</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="13"/>
+      <c r="I90" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="12"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="12"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -5817,19 +6010,23 @@
         <v>377</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
+      <c r="I91" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="10"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -5854,23 +6051,25 @@
         <v>381</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K92" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11" t="s">
+      <c r="L92" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L92" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M92" s="11"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="10"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -5895,19 +6094,23 @@
         <v>385</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="13"/>
+      <c r="I93" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="12"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="12"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -5932,25 +6135,25 @@
         <v>389</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="J94" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="M94" s="11"/>
+      <c r="L94" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M94" s="10"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="10"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -5975,19 +6178,23 @@
         <v>393</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
+      <c r="I95" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="10"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -6012,25 +6219,25 @@
         <v>397</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K96" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="M96" s="11"/>
+      <c r="L96" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="M96" s="10"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="10"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -6055,23 +6262,25 @@
         <v>401</v>
       </c>
       <c r="H97" s="7"/>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K97" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11" t="s">
+      <c r="L97" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L97" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M97" s="11"/>
+      <c r="M97" s="10"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="10"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -6096,19 +6305,23 @@
         <v>405</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
+      <c r="I98" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="10"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -6133,25 +6346,25 @@
         <v>409</v>
       </c>
       <c r="H99" s="7"/>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="J99" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="M99" s="11"/>
+      <c r="L99" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="M99" s="10"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="10"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -6176,25 +6389,25 @@
         <v>413</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="M100" s="11"/>
+      <c r="L100" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="M100" s="10"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="10"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -6219,19 +6432,23 @@
         <v>417</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
+      <c r="I101" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="10"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -6256,27 +6473,27 @@
         <v>421</v>
       </c>
       <c r="H102" s="7"/>
-      <c r="I102" s="11" t="s">
+      <c r="I102" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L102" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="M102" s="11" t="s">
-        <v>553</v>
-      </c>
+      <c r="L102" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="M102" s="10"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="10" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -6301,23 +6518,25 @@
         <v>425</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K103" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11" t="s">
+      <c r="L103" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L103" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M103" s="11"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="10"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -6342,23 +6561,25 @@
         <v>428</v>
       </c>
       <c r="H104" s="7"/>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K104" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11" t="s">
+      <c r="L104" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L104" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M104" s="11"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="10"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -6383,19 +6604,23 @@
         <v>432</v>
       </c>
       <c r="H105" s="7"/>
-      <c r="I105" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
+      <c r="I105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="10"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -6420,23 +6645,25 @@
         <v>436</v>
       </c>
       <c r="H106" s="7"/>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K106" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11" t="s">
+      <c r="L106" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L106" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M106" s="11"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
@@ -6461,27 +6688,27 @@
         <v>439</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="11" t="s">
+      <c r="I107" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="J107" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K107" s="11" t="s">
+      <c r="K107" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="M107" s="11" t="s">
-        <v>554</v>
-      </c>
+      <c r="L107" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="M107" s="10"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="10" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -6506,27 +6733,27 @@
         <v>443</v>
       </c>
       <c r="H108" s="7"/>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L108" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="M108" s="11" t="s">
-        <v>555</v>
-      </c>
+      <c r="L108" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="M108" s="10"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="10" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -6551,23 +6778,25 @@
         <v>447</v>
       </c>
       <c r="H109" s="7"/>
-      <c r="I109" s="11" t="s">
+      <c r="I109" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K109" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11" t="s">
+      <c r="L109" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="L109" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M109" s="11"/>
+      <c r="M109" s="10"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="10"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
@@ -6592,19 +6821,23 @@
         <v>451</v>
       </c>
       <c r="H110" s="7"/>
-      <c r="I110" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
+      <c r="I110" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="10"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -6629,19 +6862,23 @@
         <v>455</v>
       </c>
       <c r="H111" s="7"/>
-      <c r="I111" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
+      <c r="I111" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="10"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -6666,19 +6903,23 @@
         <v>459</v>
       </c>
       <c r="H112" s="7"/>
-      <c r="I112" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
+      <c r="I112" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="10"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -6703,19 +6944,23 @@
         <v>463</v>
       </c>
       <c r="H113" s="7"/>
-      <c r="I113" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="13"/>
+      <c r="I113" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L113" s="10"/>
+      <c r="M113" s="12"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="12"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -6740,19 +6985,23 @@
         <v>467</v>
       </c>
       <c r="H114" s="7"/>
-      <c r="I114" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
+      <c r="I114" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="10"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -6777,19 +7026,23 @@
         <v>471</v>
       </c>
       <c r="H115" s="7"/>
-      <c r="I115" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
+      <c r="I115" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="10"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -6814,19 +7067,23 @@
         <v>475</v>
       </c>
       <c r="H116" s="7"/>
-      <c r="I116" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
+      <c r="I116" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="10"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -6851,19 +7108,23 @@
         <v>479</v>
       </c>
       <c r="H117" s="7"/>
-      <c r="I117" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="13"/>
+      <c r="I117" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L117" s="10"/>
+      <c r="M117" s="12"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="12"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -6888,19 +7149,23 @@
         <v>483</v>
       </c>
       <c r="H118" s="7"/>
-      <c r="I118" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
+      <c r="I118" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="10"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -6925,19 +7190,23 @@
         <v>487</v>
       </c>
       <c r="H119" s="7"/>
-      <c r="I119" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
+      <c r="I119" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="10"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -6962,19 +7231,23 @@
         <v>490</v>
       </c>
       <c r="H120" s="7"/>
-      <c r="I120" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
+      <c r="I120" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="10"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -6999,19 +7272,23 @@
         <v>494</v>
       </c>
       <c r="H121" s="7"/>
-      <c r="I121" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
+      <c r="I121" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="10"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -7036,19 +7313,23 @@
         <v>498</v>
       </c>
       <c r="H122" s="7"/>
-      <c r="I122" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
+      <c r="I122" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="10"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -7073,19 +7354,23 @@
         <v>502</v>
       </c>
       <c r="H123" s="7"/>
-      <c r="I123" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
+      <c r="I123" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="10"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -7110,19 +7395,23 @@
         <v>506</v>
       </c>
       <c r="H124" s="7"/>
-      <c r="I124" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
+      <c r="I124" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="10"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -7147,19 +7436,23 @@
         <v>510</v>
       </c>
       <c r="H125" s="7"/>
-      <c r="I125" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
+      <c r="I125" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="10"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -7184,19 +7477,23 @@
         <v>514</v>
       </c>
       <c r="H126" s="7"/>
-      <c r="I126" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
+      <c r="I126" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="10"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -7221,19 +7518,23 @@
         <v>518</v>
       </c>
       <c r="H127" s="7"/>
-      <c r="I127" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
+      <c r="I127" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="10"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -7258,19 +7559,23 @@
         <v>522</v>
       </c>
       <c r="H128" s="7"/>
-      <c r="I128" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
+      <c r="I128" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="10"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -7295,19 +7600,23 @@
         <v>526</v>
       </c>
       <c r="H129" s="7"/>
-      <c r="I129" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
+      <c r="I129" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="10"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -7332,19 +7641,23 @@
         <v>530</v>
       </c>
       <c r="H130" s="7"/>
-      <c r="I130" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
+      <c r="I130" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="10"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -7369,19 +7682,23 @@
         <v>534</v>
       </c>
       <c r="H131" s="7"/>
-      <c r="I131" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
+      <c r="I131" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Bagvalal_data.xlsx
+++ b/sources/Bagvalal_data.xlsx
@@ -1674,9 +1674,6 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>COMIT</t>
-  </si>
-  <si>
     <t>SUPEL</t>
   </si>
   <si>
@@ -1750,6 +1747,9 @@
   </si>
   <si>
     <t>SUPLAT_NOM</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2265,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="5"/>
@@ -2308,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="5"/>
@@ -2351,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="5"/>
@@ -2478,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="5"/>
@@ -2521,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
@@ -2607,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
@@ -2691,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
@@ -2947,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
@@ -3119,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="5"/>
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="5"/>
@@ -3205,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="5"/>
@@ -3289,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="5"/>
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="5"/>
@@ -3625,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" s="5"/>
@@ -4170,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="5"/>
@@ -4381,7 +4381,7 @@
         <v>8</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M52" s="10"/>
       <c r="N52" s="5"/>
@@ -4506,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M55" s="10"/>
       <c r="N55" s="5"/>
@@ -4549,7 +4549,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M56" s="10"/>
       <c r="N56" s="5"/>
@@ -4592,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="5"/>
@@ -4635,7 +4635,7 @@
         <v>8</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="5"/>
@@ -4678,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="5"/>
@@ -4844,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="5"/>
@@ -5305,7 +5305,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M74" s="10"/>
       <c r="N74" s="5"/>
@@ -5432,7 +5432,7 @@
         <v>8</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M77" s="10"/>
       <c r="N77" s="5"/>
@@ -5518,7 +5518,7 @@
         <v>8</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M79" s="10"/>
       <c r="N79" s="5"/>
@@ -5637,13 +5637,13 @@
         <v>538</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="K82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M82" s="10"/>
       <c r="N82" s="5"/>
@@ -5686,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="5"/>
@@ -5723,13 +5723,13 @@
         <v>538</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="5"/>
@@ -6145,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="5"/>
@@ -6223,13 +6223,13 @@
         <v>538</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="5"/>
@@ -6350,13 +6350,13 @@
         <v>538</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="K99" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M99" s="10"/>
       <c r="N99" s="5"/>
@@ -6393,13 +6393,13 @@
         <v>538</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="K100" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="5"/>
@@ -6477,13 +6477,13 @@
         <v>539</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="5"/>
@@ -6492,7 +6492,7 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -6698,7 +6698,7 @@
         <v>9</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="5"/>
@@ -6707,7 +6707,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -6743,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="5"/>
@@ -6752,7 +6752,7 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
